--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9645"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -491,7 +490,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -651,10 +650,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -674,7 +673,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -708,10 +707,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -731,7 +730,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -765,10 +764,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -788,7 +787,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -822,10 +821,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -845,7 +844,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -879,10 +878,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -902,7 +901,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -934,7 +933,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -972,7 +971,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -989,11 +988,125 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>369967</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>331867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="781050"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>341392</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="1057275"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>341392</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>331867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="1371600"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1067,7 +1180,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1102,7 +1214,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1278,7 +1389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3216,7 +3327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3229,7 +3340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -653,7 +653,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -673,7 +673,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -710,7 +710,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -730,7 +730,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -767,7 +767,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -787,7 +787,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -824,7 +824,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -844,7 +844,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -881,7 +881,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -901,7 +901,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1093,6 +1093,82 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="152400" y="1371600"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>369967</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>198517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="1609725"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>389017</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>360442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="1990725"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1393,7 +1469,7 @@
   <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -653,7 +653,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -673,7 +673,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -710,7 +710,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -730,7 +730,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -767,7 +767,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -787,7 +787,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -824,7 +824,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -844,7 +844,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -881,7 +881,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -901,7 +901,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1169,6 +1169,82 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="200025" y="1990725"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>379492</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>341392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="2343150"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398542</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>217567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="2590800"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1468,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="157">
   <si>
     <t>ID</t>
   </si>
@@ -484,6 +484,10 @@
   </si>
   <si>
     <t>基础题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +657,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -673,7 +677,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -710,7 +714,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -730,7 +734,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -767,7 +771,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -787,7 +791,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -824,7 +828,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -844,7 +848,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -881,7 +885,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -901,7 +905,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1254,6 +1258,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408067</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>350917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="2943225"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1542,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1556,7 +1598,7 @@
     <col min="6" max="6" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
@@ -1576,7 +1618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1">
+    <row r="2" spans="1:7" ht="17.25" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>1000</v>
@@ -1592,7 +1634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2">
         <v>1001</v>
@@ -1608,7 +1650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29.25" thickBot="1">
+    <row r="4" spans="1:7" ht="29.25" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>1785</v>
@@ -1626,7 +1668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>1293</v>
@@ -1644,7 +1686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29.25" thickBot="1">
+    <row r="6" spans="1:7" ht="29.25" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>2012</v>
@@ -1662,7 +1704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" thickBot="1">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>1409</v>
@@ -1680,7 +1722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="29.25" thickBot="1">
+    <row r="8" spans="1:7" ht="29.25" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>1877</v>
@@ -1698,7 +1740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29.25" thickBot="1">
+    <row r="9" spans="1:7" ht="29.25" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>2001</v>
@@ -1716,7 +1758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" thickBot="1">
+    <row r="10" spans="1:7" ht="17.25" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>1264</v>
@@ -1734,7 +1776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29.25" thickBot="1">
+    <row r="11" spans="1:7" ht="29.25" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>1787</v>
@@ -1751,8 +1793,11 @@
       <c r="F11" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>1820</v>
@@ -1770,7 +1815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" thickBot="1">
+    <row r="13" spans="1:7" ht="17.25" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>1197</v>
@@ -1788,7 +1833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="29.25" thickBot="1">
+    <row r="14" spans="1:7" ht="29.25" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>1880</v>
@@ -1806,7 +1851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29.25" thickBot="1">
+    <row r="15" spans="1:7" ht="29.25" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>2066</v>
@@ -1824,7 +1869,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="29.25" thickBot="1">
+    <row r="16" spans="1:7" ht="29.25" thickBot="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>1910</v>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="157">
   <si>
     <t>ID</t>
   </si>
@@ -1296,6 +1296,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408067</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="3190875"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1587,7 +1625,7 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1813,6 +1851,9 @@
       </c>
       <c r="F12" s="2">
         <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickBot="1">

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -657,7 +657,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -677,7 +677,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -714,7 +714,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -734,7 +734,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -771,7 +771,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -791,7 +791,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -828,7 +828,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -848,7 +848,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -885,7 +885,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -905,7 +905,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1334,6 +1334,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>369967</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="3390900"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1625,7 +1663,7 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -657,7 +657,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -677,7 +677,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -714,7 +714,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -734,7 +734,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -771,7 +771,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -791,7 +791,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -828,7 +828,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -848,7 +848,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -885,7 +885,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -905,7 +905,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1372,6 +1372,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408067</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>360442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="3762375"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="158">
   <si>
     <t>ID</t>
   </si>
@@ -484,6 +484,10 @@
   </si>
   <si>
     <t>基础题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1410,6 +1414,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>389017</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>341392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="4114800"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1701,7 +1743,7 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1949,6 +1991,9 @@
       <c r="F13" s="2">
         <v>31</v>
       </c>
+      <c r="G13" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="29.25" thickBot="1">
       <c r="A14" s="2"/>
@@ -1966,6 +2011,9 @@
       </c>
       <c r="F14" s="2">
         <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="29.25" thickBot="1">

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -661,7 +661,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -681,7 +681,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -718,7 +718,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -738,7 +738,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -775,7 +775,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -795,7 +795,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -832,7 +832,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -852,7 +852,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -889,7 +889,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -909,7 +909,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1443,6 +1443,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="200025" y="4114800"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408067</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>369967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="4514850"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1743,7 +1781,7 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="158">
   <si>
     <t>ID</t>
   </si>
@@ -661,7 +661,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -681,7 +681,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -718,7 +718,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -738,7 +738,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -775,7 +775,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -795,7 +795,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -832,7 +832,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -852,7 +852,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -889,7 +889,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -909,7 +909,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1481,6 +1481,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="219075" y="4514850"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398542</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="4695825"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1781,7 +1819,7 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2090,7 +2128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.25" thickBot="1">
+    <row r="17" spans="1:7" ht="17.25" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>1639</v>
@@ -2107,8 +2145,11 @@
       <c r="F17" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="29.25" thickBot="1">
+      <c r="G17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29.25" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>1924</v>
@@ -2126,7 +2167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29.25" thickBot="1">
+    <row r="19" spans="1:7" ht="29.25" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>2023</v>
@@ -2144,7 +2185,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29.25" thickBot="1">
+    <row r="20" spans="1:7" ht="29.25" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>1313</v>
@@ -2162,7 +2203,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" thickBot="1">
+    <row r="21" spans="1:7" ht="17.25" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>1209</v>
@@ -2180,7 +2221,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" thickBot="1">
+    <row r="22" spans="1:7" ht="17.25" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>1068</v>
@@ -2196,7 +2237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="29.25" thickBot="1">
+    <row r="23" spans="1:7" ht="29.25" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
         <v>1225</v>
@@ -2214,7 +2255,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="29.25" thickBot="1">
+    <row r="24" spans="1:7" ht="29.25" thickBot="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>2100</v>
@@ -2232,7 +2273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29.25" thickBot="1">
+    <row r="25" spans="1:7" ht="29.25" thickBot="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>1319</v>
@@ -2250,7 +2291,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" thickBot="1">
+    <row r="26" spans="1:7" ht="17.25" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>1567</v>
@@ -2268,7 +2309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25" thickBot="1">
+    <row r="27" spans="1:7" ht="17.25" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
         <v>1581</v>
@@ -2286,7 +2327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="29.25" thickBot="1">
+    <row r="28" spans="1:7" ht="29.25" thickBot="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2">
         <v>1585</v>
@@ -2304,7 +2345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" thickBot="1">
+    <row r="29" spans="1:7" ht="17.25" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2">
         <v>1263</v>
@@ -2322,7 +2363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="29.25" thickBot="1">
+    <row r="30" spans="1:7" ht="29.25" thickBot="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>1991</v>
@@ -2340,7 +2381,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="29.25" thickBot="1">
+    <row r="31" spans="1:7" ht="29.25" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
         <v>1100</v>
@@ -2358,7 +2399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25" thickBot="1">
+    <row r="32" spans="1:7" ht="17.25" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2">
         <v>1327</v>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="158">
   <si>
     <t>ID</t>
   </si>
@@ -661,7 +661,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -681,7 +681,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -718,7 +718,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -738,7 +738,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -775,7 +775,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -795,7 +795,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -832,7 +832,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -852,7 +852,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -889,7 +889,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -909,7 +909,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1519,6 +1519,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="209550" y="4695825"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>369967</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>350917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="5086350"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1818,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2165,6 +2203,9 @@
       </c>
       <c r="F18" s="2">
         <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="29.25" thickBot="1">

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="158">
   <si>
     <t>ID</t>
   </si>
@@ -661,7 +661,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -681,7 +681,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -718,7 +718,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -738,7 +738,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -775,7 +775,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -795,7 +795,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -832,7 +832,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -852,7 +852,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -889,7 +889,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -909,7 +909,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1557,6 +1557,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="180975" y="5086350"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398542</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>350917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="5457825"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1856,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2224,6 +2262,9 @@
       </c>
       <c r="F19" s="2">
         <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="29.25" thickBot="1">

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
   <si>
     <t>ID</t>
   </si>
@@ -493,6 +493,9 @@
   <si>
     <t>*</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -1595,6 +1598,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="209550" y="5457825"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>417592</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>350917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="5829300"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1892,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1906,7 +1947,7 @@
     <col min="6" max="6" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
@@ -1926,7 +1967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1">
+    <row r="2" spans="1:8" ht="17.25" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>1000</v>
@@ -1942,7 +1983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1">
+    <row r="3" spans="1:8" ht="17.25" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2">
         <v>1001</v>
@@ -1958,7 +1999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.25" thickBot="1">
+    <row r="4" spans="1:8" ht="29.25" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>1785</v>
@@ -1976,7 +2017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1">
+    <row r="5" spans="1:8" ht="17.25" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>1293</v>
@@ -1994,7 +2035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29.25" thickBot="1">
+    <row r="6" spans="1:8" ht="29.25" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>2012</v>
@@ -2012,7 +2053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1">
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>1409</v>
@@ -2030,7 +2071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.25" thickBot="1">
+    <row r="8" spans="1:8" ht="29.25" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>1877</v>
@@ -2048,7 +2089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29.25" thickBot="1">
+    <row r="9" spans="1:8" ht="29.25" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>2001</v>
@@ -2066,7 +2107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" thickBot="1">
+    <row r="10" spans="1:8" ht="17.25" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>1264</v>
@@ -2084,7 +2125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29.25" thickBot="1">
+    <row r="11" spans="1:8" ht="29.25" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>1787</v>
@@ -2105,7 +2146,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1">
+    <row r="12" spans="1:8" ht="17.25" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>1820</v>
@@ -2126,7 +2167,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1">
+    <row r="13" spans="1:8" ht="17.25" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>1197</v>
@@ -2147,7 +2188,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29.25" thickBot="1">
+    <row r="14" spans="1:8" ht="29.25" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>1880</v>
@@ -2165,10 +2206,13 @@
         <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="29.25" thickBot="1">
+        <v>156</v>
+      </c>
+      <c r="H14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29.25" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>2066</v>
@@ -2186,7 +2230,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29.25" thickBot="1">
+    <row r="16" spans="1:8" ht="29.25" thickBot="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>1910</v>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="159">
   <si>
     <t>ID</t>
   </si>
@@ -664,7 +664,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -684,7 +684,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -721,7 +721,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -741,7 +741,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -778,7 +778,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -798,7 +798,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -835,7 +835,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -855,7 +855,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -892,7 +892,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -912,7 +912,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1636,6 +1636,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="228600" y="5829300"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>379492</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>217567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="6067425"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1936,7 +1974,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2345,6 +2383,9 @@
       </c>
       <c r="F21" s="2">
         <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" thickBot="1">

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -496,6 +496,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -664,7 +668,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -684,7 +688,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -721,7 +725,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -741,7 +745,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -778,7 +782,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -798,7 +802,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -835,7 +839,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -855,7 +859,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -892,7 +896,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -912,7 +916,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1674,6 +1678,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="190500" y="6067425"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398542</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>198517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="6267450"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1973,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2402,6 +2444,9 @@
       </c>
       <c r="F22" s="2">
         <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="29.25" thickBot="1">

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -668,7 +668,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -688,7 +688,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -725,7 +725,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -745,7 +745,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -782,7 +782,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -802,7 +802,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -839,7 +839,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -859,7 +859,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -896,7 +896,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -916,7 +916,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1716,6 +1716,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="209550" y="6267450"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408067</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>331867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="6991350"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -505,8 +505,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +552,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -606,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -624,6 +630,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -668,7 +677,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -688,7 +697,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -725,7 +734,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -745,7 +754,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -782,7 +791,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -802,7 +811,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -839,7 +848,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -859,7 +868,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -896,7 +905,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -916,7 +925,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1763,11 +1772,125 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>417592</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>350917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="7381875"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408067</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>217567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="7620000"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>379492</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="7829550"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1841,6 +1964,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1875,6 +1999,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2050,11 +2175,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2557,6 +2682,9 @@
       </c>
       <c r="F26" s="2">
         <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" thickBot="1">
@@ -4018,20 +4146,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D47" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="4:4">
+      <c r="D1" s="6"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -1877,6 +1877,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="190500" y="7829550"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360442</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>341392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="8181975"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2179,7 +2217,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -1915,6 +1915,82 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="171450" y="8181975"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360442</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>17542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="8448675"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>331867</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>360442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="8791575"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2217,7 +2293,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -1991,6 +1991,120 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="142875" y="8791575"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>379492</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>360442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="9163050"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360442</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="9382125"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360442</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>360442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="9753600"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2293,7 +2407,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2890,6 +3004,9 @@
       <c r="F31" s="2">
         <v>50</v>
       </c>
+      <c r="G31" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="17.25" thickBot="1">
       <c r="A32" s="2"/>
@@ -2909,7 +3026,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="29.25" thickBot="1">
+    <row r="33" spans="1:7" ht="29.25" thickBot="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>1876</v>
@@ -2926,8 +3043,11 @@
       <c r="F33" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="27.75" thickBot="1">
+      <c r="G33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="27.75" thickBot="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>1243</v>
@@ -2945,7 +3065,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.25" thickBot="1">
+    <row r="35" spans="1:7" ht="17.25" thickBot="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2">
         <v>1493</v>
@@ -2963,7 +3083,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="29.25" thickBot="1">
+    <row r="36" spans="1:7" ht="29.25" thickBot="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>1110</v>
@@ -2981,7 +3101,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.25" thickBot="1">
+    <row r="37" spans="1:7" ht="17.25" thickBot="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
         <v>1349</v>
@@ -2999,7 +3119,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.25" thickBot="1">
+    <row r="38" spans="1:7" ht="17.25" thickBot="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>1607</v>
@@ -3017,7 +3137,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="29.25" thickBot="1">
+    <row r="39" spans="1:7" ht="29.25" thickBot="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>1881</v>
@@ -3035,7 +3155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="29.25" thickBot="1">
+    <row r="40" spans="1:7" ht="29.25" thickBot="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>1893</v>
@@ -3053,7 +3173,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.25" thickBot="1">
+    <row r="41" spans="1:7" ht="17.25" thickBot="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
         <v>1545</v>
@@ -3071,7 +3191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.25" thickBot="1">
+    <row r="42" spans="1:7" ht="17.25" thickBot="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>1496</v>
@@ -3089,7 +3209,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.25" thickBot="1">
+    <row r="43" spans="1:7" ht="17.25" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2">
         <v>1196</v>
@@ -3107,7 +3227,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.25" thickBot="1">
+    <row r="44" spans="1:7" ht="17.25" thickBot="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2">
         <v>1636</v>
@@ -3125,7 +3245,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.25" thickBot="1">
+    <row r="45" spans="1:7" ht="17.25" thickBot="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2">
         <v>1837</v>
@@ -3143,7 +3263,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="29.25" thickBot="1">
+    <row r="46" spans="1:7" ht="29.25" thickBot="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>1925</v>
@@ -3161,7 +3281,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.25" thickBot="1">
+    <row r="47" spans="1:7" ht="17.25" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2">
         <v>1149</v>
@@ -3177,7 +3297,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.25" thickBot="1">
+    <row r="48" spans="1:7" ht="17.25" thickBot="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>1563</v>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -2105,6 +2105,82 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="171450" y="9753600"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360442</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>198517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="10315575"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>350917</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>341392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="10106025"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2406,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3063,6 +3139,9 @@
       </c>
       <c r="F34" s="2">
         <v>54</v>
+      </c>
+      <c r="G34" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" thickBot="1">

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -2181,6 +2181,120 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="161925" y="10106025"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>350917</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>341392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="10677525"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>389017</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>217567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="10925175"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398542</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>8017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图片 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="11153775"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2482,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3179,6 +3293,9 @@
       <c r="F36" s="2">
         <v>56</v>
       </c>
+      <c r="G36" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1">
       <c r="A37" s="2"/>
@@ -3214,6 +3331,9 @@
       </c>
       <c r="F38" s="2">
         <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="29.25" thickBot="1">

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="162">
   <si>
     <t>ID</t>
   </si>
@@ -499,6 +499,14 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2295,6 +2303,196 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="209550" y="11153775"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>389017</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>198517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="12744450"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408067</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>217567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="12544425"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>379492</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>360442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="11506200"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>417592</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="图片 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="12096750"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>417592</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>217567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="图片 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="12325350"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2596,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3371,6 +3569,9 @@
       <c r="F40" s="2">
         <v>56</v>
       </c>
+      <c r="G40" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="17.25" thickBot="1">
       <c r="A41" s="2"/>
@@ -3425,6 +3626,9 @@
       <c r="F43" s="2">
         <v>61</v>
       </c>
+      <c r="G43" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="17.25" thickBot="1">
       <c r="A44" s="2"/>
@@ -3460,6 +3664,9 @@
       </c>
       <c r="F45" s="2">
         <v>61</v>
+      </c>
+      <c r="G45" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="29.25" thickBot="1">
@@ -4582,8 +4789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D47" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="162">
   <si>
     <t>ID</t>
   </si>
@@ -514,7 +514,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,8 +567,15 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +591,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6C6C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,6 +654,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2493,6 +2509,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="228600" y="12325350"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>455692</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="13782675"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2794,8 +2848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3686,6 +3740,9 @@
       <c r="F46" s="2">
         <v>63</v>
       </c>
+      <c r="G46" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="17.25" thickBot="1">
       <c r="A47" s="2"/>
@@ -4046,7 +4103,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="29.25" thickBot="1">
-      <c r="A67" s="2"/>
+      <c r="A67" s="7"/>
       <c r="B67" s="2">
         <v>1106</v>
       </c>
@@ -4790,7 +4847,7 @@
   <dimension ref="D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="163">
   <si>
     <t>ID</t>
   </si>
@@ -507,6 +507,10 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2547,6 +2551,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="266700" y="13782675"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408067</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>331867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="图片 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="11849100"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2848,8 +2890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3624,7 +3666,7 @@
         <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.25" thickBot="1">

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -507,6 +507,18 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2589,6 +2601,120 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="219075" y="11849100"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>436642</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>188992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="图片 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="14354175"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>436642</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>188992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="图片 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="14944725"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398542</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>322342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="图片 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="16478250"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2890,8 +3016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3801,6 +3927,9 @@
       <c r="F47" s="2">
         <v>64</v>
       </c>
+      <c r="G47" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="17.25" thickBot="1">
       <c r="A48" s="2"/>
@@ -3820,7 +3949,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="29.25" thickBot="1">
+    <row r="49" spans="1:7" ht="29.25" thickBot="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>1654</v>
@@ -3837,8 +3966,11 @@
       <c r="F49" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.25" thickBot="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>1617</v>
@@ -3856,7 +3988,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="29.25" thickBot="1">
+    <row r="51" spans="1:7" ht="29.25" thickBot="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2">
         <v>1723</v>
@@ -3874,7 +4006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.25" thickBot="1">
+    <row r="52" spans="1:7" ht="17.25" thickBot="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2">
         <v>2056</v>
@@ -3892,7 +4024,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.25" thickBot="1">
+    <row r="53" spans="1:7" ht="17.25" thickBot="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2">
         <v>1131</v>
@@ -3909,8 +4041,11 @@
       <c r="F53" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="29.25" thickBot="1">
+      <c r="G53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="29.25" thickBot="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
         <v>2002</v>
@@ -3928,7 +4063,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="29.25" thickBot="1">
+    <row r="55" spans="1:7" ht="29.25" thickBot="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2">
         <v>2035</v>
@@ -3946,7 +4081,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.25" thickBot="1">
+    <row r="56" spans="1:7" ht="17.25" thickBot="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2">
         <v>1025</v>
@@ -3964,7 +4099,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="29.25" thickBot="1">
+    <row r="57" spans="1:7" ht="29.25" thickBot="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
         <v>1224</v>
@@ -3981,8 +4116,11 @@
       <c r="F57" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="29.25" thickBot="1">
+      <c r="G57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="29.25" thickBot="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2">
         <v>1457</v>
@@ -4000,7 +4138,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.25" thickBot="1">
+    <row r="59" spans="1:7" ht="17.25" thickBot="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2">
         <v>1083</v>
@@ -4018,7 +4156,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.25" thickBot="1">
+    <row r="60" spans="1:7" ht="17.25" thickBot="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2">
         <v>1935</v>
@@ -4036,7 +4174,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="29.25" thickBot="1">
+    <row r="61" spans="1:7" ht="29.25" thickBot="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2">
         <v>1792</v>
@@ -4054,7 +4192,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="29.25" thickBot="1">
+    <row r="62" spans="1:7" ht="29.25" thickBot="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2">
         <v>2005</v>
@@ -4072,7 +4210,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="29.25" thickBot="1">
+    <row r="63" spans="1:7" ht="29.25" thickBot="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2">
         <v>2031</v>
@@ -4090,7 +4228,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="29.25" thickBot="1">
+    <row r="64" spans="1:7" ht="29.25" thickBot="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2">
         <v>1502</v>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645"/>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -717,7 +717,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -737,7 +737,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -774,7 +774,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -794,7 +794,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -831,7 +831,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -851,7 +851,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -888,7 +888,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -908,7 +908,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -945,7 +945,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -965,7 +965,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2724,11 +2724,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>427117</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>331867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="图片 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="15525750"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2802,7 +2840,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2837,7 +2874,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3013,11 +3049,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:B56"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5023,7 +5059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5043,7 +5079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -717,7 +717,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -737,7 +737,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -774,7 +774,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -794,7 +794,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -831,7 +831,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -851,7 +851,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -888,7 +888,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -908,7 +908,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -945,7 +945,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -965,7 +965,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2753,6 +2753,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="238125" y="15525750"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>417592</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>188992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="图片 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="17306925"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3052,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="168">
   <si>
     <t>ID</t>
   </si>
@@ -519,6 +519,14 @@
   </si>
   <si>
     <t>？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -717,7 +725,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -737,7 +745,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -774,7 +782,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -794,7 +802,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -831,7 +839,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -851,7 +859,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -888,7 +896,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -908,7 +916,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -945,7 +953,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -965,7 +973,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2791,6 +2799,82 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="228600" y="17306925"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>436642</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>331867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="图片 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="18411825"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398542</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>331867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="图片 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="18783300"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3090,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4265,6 +4349,9 @@
       <c r="F61" s="2">
         <v>77</v>
       </c>
+      <c r="G61" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="62" spans="1:7" ht="29.25" thickBot="1">
       <c r="A62" s="2"/>
@@ -4318,6 +4405,9 @@
       </c>
       <c r="F64" s="2">
         <v>78</v>
+      </c>
+      <c r="G64" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1">

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="168">
   <si>
     <t>ID</t>
   </si>
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -725,7 +725,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -745,7 +745,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -782,7 +782,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -802,7 +802,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -839,7 +839,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -859,7 +859,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -896,7 +896,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -916,7 +916,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -953,7 +953,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -973,7 +973,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2884,11 +2884,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>436642</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>188992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="图片 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="13544550"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2962,6 +3000,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2996,6 +3035,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3171,11 +3211,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4084,9 +4124,6 @@
       </c>
       <c r="F47" s="2">
         <v>64</v>
-      </c>
-      <c r="G47" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.25" thickBot="1">
@@ -5187,7 +5224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5207,7 +5244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -2913,6 +2913,82 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="247650" y="13544550"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408067</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="图片 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="19030950"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360442</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>198517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="图片 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="21755100"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3214,8 +3290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -2989,6 +2989,82 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="171450" y="21755100"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>436642</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>322342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="图片 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="27612975"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>436642</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="图片 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="27870150"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3290,8 +3366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -3065,6 +3065,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="247650" y="27870150"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>408067</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="图片 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="26317575"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3367,7 +3405,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -3103,6 +3103,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="219075" y="26317575"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>436642</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>217567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="图片 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="25736550"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3405,7 +3443,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -3141,6 +3141,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="247650" y="25736550"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>350917</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>274717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="图片 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="25050750"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3443,7 +3481,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="169">
   <si>
     <t>ID</t>
   </si>
@@ -527,6 +527,10 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -537,7 +541,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -725,7 +729,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -745,7 +749,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -782,7 +786,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -802,7 +806,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -839,7 +843,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -859,7 +863,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -896,7 +900,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -916,7 +920,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -953,7 +957,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -973,7 +977,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3188,11 +3192,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>389017</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>198517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="图片 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="16135350"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3266,7 +3308,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3301,7 +3342,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3477,11 +3517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4558,6 +4598,9 @@
       </c>
       <c r="F56" s="2">
         <v>70</v>
+      </c>
+      <c r="G56" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="29.25" thickBot="1">
@@ -5490,7 +5533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5510,7 +5553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -729,7 +729,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -749,7 +749,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -786,7 +786,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -806,7 +806,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -843,7 +843,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -863,7 +863,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -900,7 +900,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -920,7 +920,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -957,7 +957,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -977,7 +977,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3221,6 +3221,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="200025" y="16135350"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>427117</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>312817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="图片 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="15878175"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3520,7 +3558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645"/>
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -729,7 +729,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -749,7 +749,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -786,7 +786,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -806,7 +806,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -843,7 +843,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -863,7 +863,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -900,7 +900,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -920,7 +920,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -957,7 +957,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -977,7 +977,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3268,11 +3268,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398542</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>198517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="图片 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="23726775"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3346,6 +3384,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3380,6 +3419,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3555,11 +3595,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5571,7 +5611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5591,7 +5631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\gitrepo\learngit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="9645"/>
   </bookViews>
@@ -541,7 +546,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -697,6 +702,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3297,6 +3305,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="209550" y="23726775"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360442</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>208042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="图片 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="21174075"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3352,7 +3398,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3387,7 +3433,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3598,8 +3644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="168">
   <si>
     <t>ID</t>
   </si>
@@ -516,10 +516,6 @@
   </si>
   <si>
     <t>*</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -728,6 +724,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1" descr="Ok">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -785,6 +786,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2" descr="Ok">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -842,6 +848,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="图片 3" descr="Ok">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -899,6 +910,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="图片 4" descr="Ok">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -956,6 +972,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="图片 5" descr="Ok">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1011,7 +1032,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1049,7 +1076,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1087,7 +1120,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1125,7 +1164,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1163,7 +1208,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1201,7 +1252,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1239,7 +1296,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1277,7 +1340,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1315,7 +1384,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1353,7 +1428,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1391,7 +1472,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1429,7 +1516,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1467,7 +1560,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1505,7 +1604,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1543,7 +1648,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPr id="22" name="图片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1581,7 +1692,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1619,7 +1736,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPr id="24" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1657,7 +1780,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPr id="25" name="图片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1695,7 +1824,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPr id="26" name="图片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1733,7 +1868,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPr id="27" name="图片 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1771,7 +1912,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPr id="28" name="图片 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1809,7 +1956,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPr id="29" name="图片 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1847,7 +2000,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPr id="30" name="图片 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1885,7 +2044,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPr id="31" name="图片 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1923,7 +2088,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPr id="32" name="图片 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1961,7 +2132,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPr id="33" name="图片 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1999,7 +2176,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPr id="34" name="图片 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2037,7 +2220,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPr id="35" name="图片 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2075,7 +2264,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPr id="36" name="图片 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2113,7 +2308,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPr id="37" name="图片 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2151,7 +2352,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPr id="38" name="图片 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2189,7 +2396,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPr id="39" name="图片 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2227,7 +2440,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPr id="40" name="图片 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2265,7 +2484,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="图片 40"/>
+        <xdr:cNvPr id="41" name="图片 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2303,7 +2528,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="图片 41"/>
+        <xdr:cNvPr id="42" name="图片 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2341,7 +2572,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="图片 42"/>
+        <xdr:cNvPr id="43" name="图片 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2379,7 +2616,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="图片 43"/>
+        <xdr:cNvPr id="44" name="图片 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2417,7 +2660,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPr id="45" name="图片 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2455,7 +2704,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPr id="46" name="图片 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2493,7 +2748,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="图片 46"/>
+        <xdr:cNvPr id="47" name="图片 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2531,7 +2792,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="图片 47"/>
+        <xdr:cNvPr id="48" name="图片 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2569,7 +2836,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="图片 48"/>
+        <xdr:cNvPr id="49" name="图片 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2607,7 +2880,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="图片 49"/>
+        <xdr:cNvPr id="50" name="图片 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2645,7 +2924,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="图片 50"/>
+        <xdr:cNvPr id="51" name="图片 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2683,7 +2968,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="图片 51"/>
+        <xdr:cNvPr id="52" name="图片 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2721,7 +3012,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="图片 52"/>
+        <xdr:cNvPr id="53" name="图片 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2759,7 +3056,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="图片 53"/>
+        <xdr:cNvPr id="54" name="图片 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2797,7 +3100,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="图片 54"/>
+        <xdr:cNvPr id="55" name="图片 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2835,7 +3144,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="图片 55"/>
+        <xdr:cNvPr id="56" name="图片 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2873,7 +3188,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="图片 56"/>
+        <xdr:cNvPr id="57" name="图片 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2911,7 +3232,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="图片 57"/>
+        <xdr:cNvPr id="58" name="图片 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2949,7 +3276,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="图片 58"/>
+        <xdr:cNvPr id="59" name="图片 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2987,7 +3320,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="图片 59"/>
+        <xdr:cNvPr id="60" name="图片 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3025,7 +3364,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="图片 60"/>
+        <xdr:cNvPr id="61" name="图片 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3063,7 +3408,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="图片 61"/>
+        <xdr:cNvPr id="62" name="图片 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3101,7 +3452,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="图片 62"/>
+        <xdr:cNvPr id="63" name="图片 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3139,7 +3496,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="图片 63"/>
+        <xdr:cNvPr id="64" name="图片 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3177,7 +3540,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="图片 64"/>
+        <xdr:cNvPr id="65" name="图片 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3215,7 +3584,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="图片 65"/>
+        <xdr:cNvPr id="66" name="图片 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3253,7 +3628,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="图片 66"/>
+        <xdr:cNvPr id="67" name="图片 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3291,7 +3672,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="图片 67"/>
+        <xdr:cNvPr id="68" name="图片 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3329,7 +3716,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="图片 68"/>
+        <xdr:cNvPr id="69" name="图片 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3343,6 +3736,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="171450" y="21174075"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>417592</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>303292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="图片 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5C963F-62C6-4D80-9715-BAEE5FB06F6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="14097000"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3431,6 +3868,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3466,6 +3920,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3644,8 +4115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4592,7 +5063,7 @@
         <v>65</v>
       </c>
       <c r="G49" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.25" thickBot="1">
@@ -4667,7 +5138,7 @@
         <v>69</v>
       </c>
       <c r="G53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="29.25" thickBot="1">
@@ -4724,7 +5195,7 @@
         <v>70</v>
       </c>
       <c r="G56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="29.25" thickBot="1">
@@ -4745,7 +5216,7 @@
         <v>70</v>
       </c>
       <c r="G57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="29.25" thickBot="1">
@@ -4820,7 +5291,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="29.25" thickBot="1">
@@ -4877,7 +5348,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1">

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="169">
   <si>
     <t>ID</t>
   </si>
@@ -528,6 +528,10 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3780,6 +3784,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="228600" y="14097000"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>389017</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>322342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="图片 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8439C6DA-47D1-430A-B04A-0BD3BE29C9C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="21507450"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4113,2013 +4161,2250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="23.75" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" thickBot="1">
+    <row r="2" spans="1:9" ht="17.25" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
         <v>1000</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5">
         <v>80218</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" thickBot="1">
+    <row r="3" spans="1:9" ht="17.25" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>1001</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5">
+      <c r="E3" s="4"/>
+      <c r="F3" s="5">
         <v>23380</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29.25" thickBot="1">
+    <row r="4" spans="1:9" ht="29.25" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>1785</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>14319</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" thickBot="1">
+    <row r="5" spans="1:9" ht="17.25" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>1293</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>23156</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29.25" thickBot="1">
+    <row r="6" spans="1:9" ht="29.25" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>2012</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>6559</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1">
+    <row r="7" spans="1:9" ht="17.25" thickBot="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>1409</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>22238</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29.25" thickBot="1">
+    <row r="8" spans="1:9" ht="29.25" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>1877</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>10190</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.25" thickBot="1">
+    <row r="9" spans="1:9" ht="29.25" thickBot="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>2001</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>6001</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1">
+    <row r="10" spans="1:9" ht="17.25" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <v>1264</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>16080</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="29.25" thickBot="1">
+    <row r="11" spans="1:9" ht="29.25" thickBot="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>1787</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>8797</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" thickBot="1">
+    <row r="12" spans="1:9" ht="17.25" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <v>1820</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>8416</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>28</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1">
+    <row r="13" spans="1:9" ht="17.25" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
         <v>1197</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>13548</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29.25" thickBot="1">
+    <row r="14" spans="1:9" ht="29.25" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <v>1880</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>6669</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>156</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="29.25" thickBot="1">
+    <row r="15" spans="1:9" ht="29.25" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <v>2066</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>2997</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29.25" thickBot="1">
+    <row r="16" spans="1:9" ht="29.25" thickBot="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
         <v>1910</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>5378</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.25" thickBot="1">
+    <row r="17" spans="1:8" ht="17.25" thickBot="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
         <v>1639</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>9114</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>35</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29.25" thickBot="1">
+    <row r="18" spans="1:8" ht="29.25" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
         <v>1924</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>5091</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>36</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="29.25" thickBot="1">
+    <row r="19" spans="1:8" ht="29.25" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
         <v>2023</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <v>3360</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>38</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="29.25" thickBot="1">
+    <row r="20" spans="1:8" ht="29.25" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
         <v>1313</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>11000</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.25" thickBot="1">
+    <row r="21" spans="1:8" ht="17.25" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
         <v>1209</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5">
         <v>10451</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>40</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" thickBot="1">
+    <row r="22" spans="1:8" ht="17.25" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
         <v>1068</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5">
+      <c r="E22" s="4"/>
+      <c r="F22" s="5">
         <v>28700</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>41</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="29.25" thickBot="1">
+    <row r="23" spans="1:8" ht="29.25" thickBot="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
         <v>1225</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
         <v>10221</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29.25" thickBot="1">
+    <row r="24" spans="1:8" ht="29.25" thickBot="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
         <v>2100</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <v>1668</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="29.25" thickBot="1">
+    <row r="25" spans="1:8" ht="29.25" thickBot="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
         <v>1319</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
         <v>10150</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.25" thickBot="1">
+    <row r="26" spans="1:8" ht="17.25" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
         <v>1567</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <v>8363</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>43</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.25" thickBot="1">
+    <row r="27" spans="1:8" ht="17.25" thickBot="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
         <v>1581</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>8177</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="29.25" thickBot="1">
+    <row r="28" spans="1:8" ht="29.25" thickBot="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
         <v>1585</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="5">
         <v>7810</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.25" thickBot="1">
+    <row r="29" spans="1:8" ht="17.25" thickBot="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
         <v>1263</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="5">
         <v>9153</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="29.25" thickBot="1">
+    <row r="30" spans="1:8" ht="29.25" thickBot="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
         <v>1991</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
         <v>3249</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="29.25" thickBot="1">
+    <row r="31" spans="1:8" ht="29.25" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
         <v>1100</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5">
         <v>8264</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <v>50</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.25" thickBot="1">
+    <row r="32" spans="1:8" ht="17.25" thickBot="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
         <v>1327</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5">
         <v>8553</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="29.25" thickBot="1">
+    <row r="33" spans="1:8" ht="29.25" thickBot="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
         <v>1876</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F33" s="5">
         <v>4172</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <v>52</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="27.75" thickBot="1">
+    <row r="34" spans="1:8" ht="27.75" thickBot="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
         <v>1243</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F34" s="5">
         <v>7806</v>
       </c>
-      <c r="F34" s="2">
+      <c r="G34" s="2">
         <v>54</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.25" thickBot="1">
+    <row r="35" spans="1:8" ht="17.25" thickBot="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
         <v>1493</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5">
         <v>7402</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="29.25" thickBot="1">
+    <row r="36" spans="1:8" ht="29.25" thickBot="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
         <v>1110</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="5">
+      <c r="F36" s="5">
         <v>7422</v>
       </c>
-      <c r="F36" s="2">
+      <c r="G36" s="2">
         <v>56</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.25" thickBot="1">
+    <row r="37" spans="1:8" ht="17.25" thickBot="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
         <v>1349</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="5">
+      <c r="F37" s="5">
         <v>7808</v>
       </c>
-      <c r="F37" s="2">
+      <c r="G37" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.25" thickBot="1">
+    <row r="38" spans="1:8" ht="17.25" thickBot="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
         <v>1607</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="5">
+      <c r="F38" s="5">
         <v>6069</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>56</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="29.25" thickBot="1">
+    <row r="39" spans="1:8" ht="29.25" thickBot="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
         <v>1881</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="5">
+      <c r="F39" s="5">
         <v>3833</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="29.25" thickBot="1">
+    <row r="40" spans="1:8" ht="29.25" thickBot="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
         <v>1893</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="5">
+      <c r="F40" s="5">
         <v>3828</v>
       </c>
-      <c r="F40" s="2">
+      <c r="G40" s="2">
         <v>56</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.25" thickBot="1">
+    <row r="41" spans="1:8" ht="17.25" thickBot="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
         <v>1545</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="5">
+      <c r="F41" s="5">
         <v>6448</v>
       </c>
-      <c r="F41" s="2">
+      <c r="G41" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.25" thickBot="1">
+    <row r="42" spans="1:8" ht="17.25" thickBot="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
         <v>1496</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="5">
+      <c r="F42" s="5">
         <v>6658</v>
       </c>
-      <c r="F42" s="2">
+      <c r="G42" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.25" thickBot="1">
+    <row r="43" spans="1:8" ht="17.25" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
         <v>1196</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="5">
+      <c r="F43" s="5">
         <v>6773</v>
       </c>
-      <c r="F43" s="2">
+      <c r="G43" s="2">
         <v>61</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.25" thickBot="1">
+    <row r="44" spans="1:8" ht="17.25" thickBot="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
         <v>1636</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="5">
+      <c r="F44" s="5">
         <v>5192</v>
       </c>
-      <c r="F44" s="2">
+      <c r="G44" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.25" thickBot="1">
+    <row r="45" spans="1:8" ht="17.25" thickBot="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="2">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2">
         <v>1837</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="5">
+      <c r="F45" s="5">
         <v>3758</v>
       </c>
-      <c r="F45" s="2">
+      <c r="G45" s="2">
         <v>61</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="29.25" thickBot="1">
+    <row r="46" spans="1:8" ht="29.25" thickBot="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="2">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2">
         <v>1925</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="5">
+      <c r="F46" s="5">
         <v>2904</v>
       </c>
-      <c r="F46" s="2">
+      <c r="G46" s="2">
         <v>63</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.25" thickBot="1">
+    <row r="47" spans="1:8" ht="17.25" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
         <v>1149</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="5">
+      <c r="E47" s="4"/>
+      <c r="F47" s="5">
         <v>6487</v>
       </c>
-      <c r="F47" s="2">
+      <c r="G47" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17.25" thickBot="1">
+    <row r="48" spans="1:8" ht="17.25" thickBot="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
         <v>1563</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="5">
+      <c r="F48" s="5">
         <v>5522</v>
       </c>
-      <c r="F48" s="2">
+      <c r="G48" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="29.25" thickBot="1">
+    <row r="49" spans="1:8" ht="29.25" thickBot="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
         <v>1654</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="5">
+      <c r="F49" s="5">
         <v>4882</v>
       </c>
-      <c r="F49" s="2">
+      <c r="G49" s="2">
         <v>65</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.25" thickBot="1">
+    <row r="50" spans="1:8" ht="17.25" thickBot="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
         <v>1617</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="5">
+      <c r="F50" s="5">
         <v>5098</v>
       </c>
-      <c r="F50" s="2">
+      <c r="G50" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="29.25" thickBot="1">
+    <row r="51" spans="1:8" ht="29.25" thickBot="1">
       <c r="A51" s="2"/>
-      <c r="B51" s="2">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2">
         <v>1723</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E51" s="5">
+      <c r="F51" s="5">
         <v>4275</v>
       </c>
-      <c r="F51" s="2">
+      <c r="G51" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17.25" thickBot="1">
+    <row r="52" spans="1:8" ht="17.25" thickBot="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
         <v>2056</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="5">
+      <c r="F52" s="5">
         <v>1632</v>
       </c>
-      <c r="F52" s="2">
+      <c r="G52" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17.25" thickBot="1">
+    <row r="53" spans="1:8" ht="17.25" thickBot="1">
       <c r="A53" s="2"/>
-      <c r="B53" s="2">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2">
         <v>1131</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E53" s="5">
+      <c r="F53" s="5">
         <v>5984</v>
       </c>
-      <c r="F53" s="2">
+      <c r="G53" s="2">
         <v>69</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="29.25" thickBot="1">
+    <row r="54" spans="1:8" ht="29.25" thickBot="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2">
         <v>2002</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="5">
+      <c r="F54" s="5">
         <v>2221</v>
       </c>
-      <c r="F54" s="2">
+      <c r="G54" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="29.25" thickBot="1">
+    <row r="55" spans="1:8" ht="29.25" thickBot="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
         <v>2035</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="5">
+      <c r="F55" s="5">
         <v>1808</v>
       </c>
-      <c r="F55" s="2">
+      <c r="G55" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.25" thickBot="1">
+    <row r="56" spans="1:8" ht="17.25" thickBot="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
         <v>1025</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E56" s="5">
+      <c r="F56" s="5">
         <v>18210</v>
       </c>
-      <c r="F56" s="2">
+      <c r="G56" s="2">
         <v>70</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="29.25" thickBot="1">
+    <row r="57" spans="1:8" ht="29.25" thickBot="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
         <v>1224</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="5">
+      <c r="F57" s="5">
         <v>5975</v>
       </c>
-      <c r="F57" s="2">
+      <c r="G57" s="2">
         <v>70</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="29.25" thickBot="1">
+    <row r="58" spans="1:8" ht="29.25" thickBot="1">
       <c r="A58" s="2"/>
-      <c r="B58" s="2">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2">
         <v>1457</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="5">
+      <c r="F58" s="5">
         <v>5905</v>
       </c>
-      <c r="F58" s="2">
+      <c r="G58" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17.25" thickBot="1">
+    <row r="59" spans="1:8" ht="17.25" thickBot="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="2">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2">
         <v>1083</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E59" s="5">
+      <c r="F59" s="5">
         <v>15328</v>
       </c>
-      <c r="F59" s="2">
+      <c r="G59" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17.25" thickBot="1">
+    <row r="60" spans="1:8" ht="17.25" thickBot="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
         <v>1935</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E60" s="5">
+      <c r="F60" s="5">
         <v>2392</v>
       </c>
-      <c r="F60" s="2">
+      <c r="G60" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="29.25" thickBot="1">
+    <row r="61" spans="1:8" ht="29.25" thickBot="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="2">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2">
         <v>1792</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="5">
+      <c r="F61" s="5">
         <v>3232</v>
       </c>
-      <c r="F61" s="2">
+      <c r="G61" s="2">
         <v>77</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="29.25" thickBot="1">
+    <row r="62" spans="1:8" ht="29.25" thickBot="1">
       <c r="A62" s="2"/>
-      <c r="B62" s="2">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2">
         <v>2005</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="5">
+      <c r="F62" s="5">
         <v>1982</v>
       </c>
-      <c r="F62" s="2">
+      <c r="G62" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="29.25" thickBot="1">
+    <row r="63" spans="1:8" ht="29.25" thickBot="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
         <v>2031</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E63" s="5">
+      <c r="F63" s="5">
         <v>1618</v>
       </c>
-      <c r="F63" s="2">
+      <c r="G63" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="29.25" thickBot="1">
+    <row r="64" spans="1:8" ht="29.25" thickBot="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
         <v>1502</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E64" s="5">
+      <c r="F64" s="5">
         <v>5029</v>
       </c>
-      <c r="F64" s="2">
+      <c r="G64" s="2">
         <v>78</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.25" thickBot="1">
+    <row r="65" spans="1:8" ht="17.25" thickBot="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
         <v>1638</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E65" s="5">
+      <c r="F65" s="5">
         <v>4044</v>
       </c>
-      <c r="F65" s="2">
+      <c r="G65" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="29.25" thickBot="1">
+    <row r="66" spans="1:8" ht="29.25" thickBot="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="2">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2">
         <v>1712</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E66" s="5">
+      <c r="F66" s="5">
         <v>3585</v>
       </c>
-      <c r="F66" s="2">
+      <c r="G66" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="29.25" thickBot="1">
+    <row r="67" spans="1:8" ht="29.25" thickBot="1">
       <c r="A67" s="7"/>
-      <c r="B67" s="2">
+      <c r="B67" s="7"/>
+      <c r="C67" s="2">
         <v>1106</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E67" s="5">
+      <c r="F67" s="5">
         <v>5118</v>
       </c>
-      <c r="F67" s="2">
+      <c r="G67" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="17.25" thickBot="1">
+    <row r="68" spans="1:8" ht="17.25" thickBot="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
         <v>1119</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E68" s="5">
+      <c r="F68" s="5">
         <v>5112</v>
       </c>
-      <c r="F68" s="2">
+      <c r="G68" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="29.25" thickBot="1">
+    <row r="69" spans="1:8" ht="29.25" thickBot="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="2">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2">
         <v>1139</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E69" s="5">
+      <c r="F69" s="5">
         <v>5131</v>
       </c>
-      <c r="F69" s="2">
+      <c r="G69" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="17.25" thickBot="1">
+    <row r="70" spans="1:8" ht="17.25" thickBot="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="2">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2">
         <v>1194</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E70" s="5">
+      <c r="F70" s="5">
         <v>5086</v>
       </c>
-      <c r="F70" s="2">
+      <c r="G70" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="29.25" thickBot="1">
+    <row r="71" spans="1:8" ht="29.25" thickBot="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="2">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2">
         <v>2068</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="5">
+      <c r="F71" s="5">
         <v>1182</v>
       </c>
-      <c r="F71" s="2">
+      <c r="G71" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="17.25" thickBot="1">
+    <row r="72" spans="1:8" ht="17.25" thickBot="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
         <v>1290</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="5">
+      <c r="F72" s="5">
         <v>5206</v>
       </c>
-      <c r="F72" s="2">
+      <c r="G72" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="29.25" thickBot="1">
+    <row r="73" spans="1:8" ht="29.25" thickBot="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
         <v>2011</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="5">
+      <c r="F73" s="5">
         <v>1836</v>
       </c>
-      <c r="F73" s="2">
+      <c r="G73" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="17.25" thickBot="1">
+      <c r="H73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17.25" thickBot="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
         <v>1404</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="5">
+      <c r="F74" s="5">
         <v>5224</v>
       </c>
-      <c r="F74" s="2">
+      <c r="G74" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="27.75" thickBot="1">
+    <row r="75" spans="1:8" ht="27.75" thickBot="1">
       <c r="A75" s="2"/>
-      <c r="B75" s="2">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2">
         <v>1120</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E75" s="5">
+      <c r="F75" s="5">
         <v>4882</v>
       </c>
-      <c r="F75" s="2">
+      <c r="G75" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.25" thickBot="1">
+    <row r="76" spans="1:8" ht="17.25" thickBot="1">
       <c r="A76" s="2"/>
-      <c r="B76" s="2">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2">
         <v>1180</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E76" s="5">
+      <c r="F76" s="5">
         <v>4755</v>
       </c>
-      <c r="F76" s="2">
+      <c r="G76" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="29.25" thickBot="1">
+    <row r="77" spans="1:8" ht="29.25" thickBot="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2">
         <v>1146</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E77" s="5">
+      <c r="F77" s="5">
         <v>4714</v>
       </c>
-      <c r="F77" s="2">
+      <c r="G77" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.25" thickBot="1">
+    <row r="78" spans="1:8" ht="17.25" thickBot="1">
       <c r="A78" s="2"/>
-      <c r="B78" s="2">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2">
         <v>1297</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="5">
+      <c r="F78" s="5">
         <v>4772</v>
       </c>
-      <c r="F78" s="2">
+      <c r="G78" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.25" thickBot="1">
+    <row r="79" spans="1:8" ht="17.25" thickBot="1">
       <c r="A79" s="2"/>
-      <c r="B79" s="2">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2">
         <v>1005</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E79" s="5">
+      <c r="F79" s="5">
         <v>14017</v>
       </c>
-      <c r="F79" s="2">
+      <c r="G79" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="29.25" thickBot="1">
+    <row r="80" spans="1:8" ht="29.25" thickBot="1">
       <c r="A80" s="2"/>
-      <c r="B80" s="2">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2">
         <v>1510</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E80" s="5">
+      <c r="F80" s="5">
         <v>4293</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.25" thickBot="1">
+    <row r="81" spans="1:7" ht="17.25" thickBot="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2">
         <v>1601</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E81" s="5">
+      <c r="F81" s="5">
         <v>3714</v>
       </c>
-      <c r="F81" s="2">
+      <c r="G81" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="29.25" thickBot="1">
+    <row r="82" spans="1:7" ht="29.25" thickBot="1">
       <c r="A82" s="2"/>
-      <c r="B82" s="2">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2">
         <v>1161</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E82" s="5">
+      <c r="F82" s="5">
         <v>4449</v>
       </c>
-      <c r="F82" s="2">
+      <c r="G82" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="17.25" thickBot="1">
+    <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
         <v>1203</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E83" s="5">
+      <c r="F83" s="5">
         <v>4415</v>
       </c>
-      <c r="F83" s="2">
+      <c r="G83" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.25" thickBot="1">
+    <row r="84" spans="1:7" ht="17.25" thickBot="1">
       <c r="A84" s="2"/>
-      <c r="B84" s="2">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2">
         <v>1446</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E84" s="5">
+      <c r="F84" s="5">
         <v>4391</v>
       </c>
-      <c r="F84" s="2">
+      <c r="G84" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.25" thickBot="1">
+    <row r="85" spans="1:7" ht="17.25" thickBot="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
         <v>1009</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="5">
+      <c r="F85" s="5">
         <v>13257</v>
       </c>
-      <c r="F85" s="2">
+      <c r="G85" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="29.25" thickBot="1">
+    <row r="86" spans="1:7" ht="29.25" thickBot="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2">
         <v>1104</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E86" s="5">
+      <c r="F86" s="5">
         <v>4287</v>
       </c>
-      <c r="F86" s="2">
+      <c r="G86" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="29.25" thickBot="1">
+    <row r="87" spans="1:7" ht="29.25" thickBot="1">
       <c r="A87" s="2"/>
-      <c r="B87" s="2">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2">
         <v>1370</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E87" s="5">
+      <c r="F87" s="5">
         <v>4544</v>
       </c>
-      <c r="F87" s="2">
+      <c r="G87" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="17.25" thickBot="1">
+    <row r="88" spans="1:7" ht="17.25" thickBot="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
         <v>1642</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E88" s="5">
+      <c r="F88" s="5">
         <v>3305</v>
       </c>
-      <c r="F88" s="2">
+      <c r="G88" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="29.25" thickBot="1">
+    <row r="89" spans="1:7" ht="29.25" thickBot="1">
       <c r="A89" s="2"/>
-      <c r="B89" s="2">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2">
         <v>1796</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="5">
+      <c r="F89" s="5">
         <v>2548</v>
       </c>
-      <c r="F89" s="2">
+      <c r="G89" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.25" thickBot="1">
+    <row r="90" spans="1:7" ht="17.25" thickBot="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2">
         <v>1644</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E90" s="5">
+      <c r="F90" s="5">
         <v>3242</v>
       </c>
-      <c r="F90" s="2">
+      <c r="G90" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="17.25" thickBot="1">
+    <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="2"/>
-      <c r="B91" s="2">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2">
         <v>1902</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="E91" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E91" s="5">
+      <c r="F91" s="5">
         <v>1889</v>
       </c>
-      <c r="F91" s="2">
+      <c r="G91" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="29.25" thickBot="1">
+    <row r="92" spans="1:7" ht="29.25" thickBot="1">
       <c r="A92" s="2"/>
-      <c r="B92" s="2">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2">
         <v>1731</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="E92" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E92" s="5">
+      <c r="F92" s="5">
         <v>2841</v>
       </c>
-      <c r="F92" s="2">
+      <c r="G92" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="29.25" thickBot="1">
+    <row r="93" spans="1:7" ht="29.25" thickBot="1">
       <c r="A93" s="2"/>
-      <c r="B93" s="2">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2">
         <v>2025</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E93" s="5">
+      <c r="F93" s="5">
         <v>1255</v>
       </c>
-      <c r="F93" s="2">
+      <c r="G93" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="29.25" thickBot="1">
+    <row r="94" spans="1:7" ht="29.25" thickBot="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2">
         <v>2033</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E94" s="5">
+      <c r="F94" s="5">
         <v>1254</v>
       </c>
-      <c r="F94" s="2">
+      <c r="G94" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="17.25" thickBot="1">
+    <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
         <v>1118</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E95" s="5">
+      <c r="F95" s="5">
         <v>4109</v>
       </c>
-      <c r="F95" s="2">
+      <c r="G95" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="29.25" thickBot="1">
+    <row r="96" spans="1:7" ht="29.25" thickBot="1">
       <c r="A96" s="2"/>
-      <c r="B96" s="2">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2">
         <v>1786</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="5">
+      <c r="F96" s="5">
         <v>2477</v>
       </c>
-      <c r="F96" s="2">
+      <c r="G96" s="2">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1000"/>
-    <hyperlink ref="E2" r:id="rId2" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1000"/>
-    <hyperlink ref="C3" r:id="rId3" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1001"/>
-    <hyperlink ref="E3" r:id="rId4" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1001"/>
-    <hyperlink ref="C4" r:id="rId5" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1785"/>
-    <hyperlink ref="E4" r:id="rId6" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1785"/>
-    <hyperlink ref="C5" r:id="rId7" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1293"/>
-    <hyperlink ref="E5" r:id="rId8" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1293"/>
-    <hyperlink ref="C6" r:id="rId9" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2012"/>
-    <hyperlink ref="E6" r:id="rId10" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2012"/>
-    <hyperlink ref="C7" r:id="rId11" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1409"/>
-    <hyperlink ref="E7" r:id="rId12" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1409"/>
-    <hyperlink ref="C8" r:id="rId13" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1877"/>
-    <hyperlink ref="E8" r:id="rId14" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1877"/>
-    <hyperlink ref="C9" r:id="rId15" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2001"/>
-    <hyperlink ref="E9" r:id="rId16" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2001"/>
-    <hyperlink ref="C10" r:id="rId17" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1264"/>
-    <hyperlink ref="E10" r:id="rId18" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1264"/>
-    <hyperlink ref="C11" r:id="rId19" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1787"/>
-    <hyperlink ref="E11" r:id="rId20" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1787"/>
-    <hyperlink ref="C12" r:id="rId21" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1820"/>
-    <hyperlink ref="E12" r:id="rId22" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1820"/>
-    <hyperlink ref="C13" r:id="rId23" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1197"/>
-    <hyperlink ref="E13" r:id="rId24" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1197"/>
-    <hyperlink ref="C14" r:id="rId25" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1880"/>
-    <hyperlink ref="E14" r:id="rId26" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1880"/>
-    <hyperlink ref="C15" r:id="rId27" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2066"/>
-    <hyperlink ref="E15" r:id="rId28" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2066"/>
-    <hyperlink ref="C16" r:id="rId29" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1910"/>
-    <hyperlink ref="E16" r:id="rId30" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1910"/>
-    <hyperlink ref="C17" r:id="rId31" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1639"/>
-    <hyperlink ref="E17" r:id="rId32" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1639"/>
-    <hyperlink ref="C18" r:id="rId33" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1924"/>
-    <hyperlink ref="E18" r:id="rId34" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1924"/>
-    <hyperlink ref="C19" r:id="rId35" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2023"/>
-    <hyperlink ref="E19" r:id="rId36" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2023"/>
-    <hyperlink ref="C20" r:id="rId37" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1313"/>
-    <hyperlink ref="E20" r:id="rId38" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1313"/>
-    <hyperlink ref="C21" r:id="rId39" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1209"/>
-    <hyperlink ref="E21" r:id="rId40" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1209"/>
-    <hyperlink ref="C22" r:id="rId41" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1068"/>
-    <hyperlink ref="E22" r:id="rId42" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1068"/>
-    <hyperlink ref="C23" r:id="rId43" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1225"/>
-    <hyperlink ref="E23" r:id="rId44" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1225"/>
-    <hyperlink ref="C24" r:id="rId45" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2100"/>
-    <hyperlink ref="E24" r:id="rId46" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2100"/>
-    <hyperlink ref="C25" r:id="rId47" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1319"/>
-    <hyperlink ref="E25" r:id="rId48" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1319"/>
-    <hyperlink ref="C26" r:id="rId49" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1567"/>
-    <hyperlink ref="E26" r:id="rId50" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1567"/>
-    <hyperlink ref="C27" r:id="rId51" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1581"/>
-    <hyperlink ref="E27" r:id="rId52" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1581"/>
-    <hyperlink ref="C28" r:id="rId53" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1585"/>
-    <hyperlink ref="E28" r:id="rId54" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1585"/>
-    <hyperlink ref="C29" r:id="rId55" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1263"/>
-    <hyperlink ref="E29" r:id="rId56" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1263"/>
-    <hyperlink ref="C30" r:id="rId57" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1991"/>
-    <hyperlink ref="E30" r:id="rId58" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1991"/>
-    <hyperlink ref="C31" r:id="rId59" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1100"/>
-    <hyperlink ref="E31" r:id="rId60" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1100"/>
-    <hyperlink ref="C32" r:id="rId61" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1327"/>
-    <hyperlink ref="E32" r:id="rId62" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1327"/>
-    <hyperlink ref="C33" r:id="rId63" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1876"/>
-    <hyperlink ref="E33" r:id="rId64" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1876"/>
-    <hyperlink ref="C34" r:id="rId65" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1243"/>
-    <hyperlink ref="E34" r:id="rId66" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1243"/>
-    <hyperlink ref="C35" r:id="rId67" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1493"/>
-    <hyperlink ref="E35" r:id="rId68" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1493"/>
-    <hyperlink ref="C36" r:id="rId69" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1110"/>
-    <hyperlink ref="E36" r:id="rId70" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1110"/>
-    <hyperlink ref="C37" r:id="rId71" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1349"/>
-    <hyperlink ref="E37" r:id="rId72" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1349"/>
-    <hyperlink ref="C38" r:id="rId73" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1607"/>
-    <hyperlink ref="E38" r:id="rId74" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1607"/>
-    <hyperlink ref="C39" r:id="rId75" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1881"/>
-    <hyperlink ref="E39" r:id="rId76" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1881"/>
-    <hyperlink ref="C40" r:id="rId77" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1893"/>
-    <hyperlink ref="E40" r:id="rId78" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1893"/>
-    <hyperlink ref="C41" r:id="rId79" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1545"/>
-    <hyperlink ref="E41" r:id="rId80" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1545"/>
-    <hyperlink ref="C42" r:id="rId81" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1496"/>
-    <hyperlink ref="E42" r:id="rId82" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1496"/>
-    <hyperlink ref="C43" r:id="rId83" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1196"/>
-    <hyperlink ref="E43" r:id="rId84" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1196"/>
-    <hyperlink ref="C44" r:id="rId85" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1636"/>
-    <hyperlink ref="E44" r:id="rId86" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1636"/>
-    <hyperlink ref="C45" r:id="rId87" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1837"/>
-    <hyperlink ref="E45" r:id="rId88" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1837"/>
-    <hyperlink ref="C46" r:id="rId89" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1925"/>
-    <hyperlink ref="E46" r:id="rId90" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1925"/>
-    <hyperlink ref="C47" r:id="rId91" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1149"/>
-    <hyperlink ref="E47" r:id="rId92" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1149"/>
-    <hyperlink ref="C48" r:id="rId93" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1563"/>
-    <hyperlink ref="E48" r:id="rId94" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1563"/>
-    <hyperlink ref="C49" r:id="rId95" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1654"/>
-    <hyperlink ref="E49" r:id="rId96" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1654"/>
-    <hyperlink ref="C50" r:id="rId97" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1617"/>
-    <hyperlink ref="E50" r:id="rId98" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1617"/>
-    <hyperlink ref="C51" r:id="rId99" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1723"/>
-    <hyperlink ref="E51" r:id="rId100" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1723"/>
-    <hyperlink ref="C52" r:id="rId101" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2056"/>
-    <hyperlink ref="E52" r:id="rId102" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2056"/>
-    <hyperlink ref="C53" r:id="rId103" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1131"/>
-    <hyperlink ref="E53" r:id="rId104" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1131"/>
-    <hyperlink ref="C54" r:id="rId105" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2002"/>
-    <hyperlink ref="E54" r:id="rId106" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2002"/>
-    <hyperlink ref="C55" r:id="rId107" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2035"/>
-    <hyperlink ref="E55" r:id="rId108" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2035"/>
-    <hyperlink ref="C56" r:id="rId109" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1025"/>
-    <hyperlink ref="E56" r:id="rId110" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1025"/>
-    <hyperlink ref="C57" r:id="rId111" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1224"/>
-    <hyperlink ref="E57" r:id="rId112" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1224"/>
-    <hyperlink ref="C58" r:id="rId113" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1457"/>
-    <hyperlink ref="E58" r:id="rId114" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1457"/>
-    <hyperlink ref="C59" r:id="rId115" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1083"/>
-    <hyperlink ref="E59" r:id="rId116" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1083"/>
-    <hyperlink ref="C60" r:id="rId117" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1935"/>
-    <hyperlink ref="E60" r:id="rId118" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1935"/>
-    <hyperlink ref="C61" r:id="rId119" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1792"/>
-    <hyperlink ref="E61" r:id="rId120" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1792"/>
-    <hyperlink ref="C62" r:id="rId121" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2005"/>
-    <hyperlink ref="E62" r:id="rId122" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2005"/>
-    <hyperlink ref="C63" r:id="rId123" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2031"/>
-    <hyperlink ref="E63" r:id="rId124" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2031"/>
-    <hyperlink ref="C64" r:id="rId125" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1502"/>
-    <hyperlink ref="E64" r:id="rId126" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1502"/>
-    <hyperlink ref="C65" r:id="rId127" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1638"/>
-    <hyperlink ref="E65" r:id="rId128" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1638"/>
-    <hyperlink ref="C66" r:id="rId129" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1712"/>
-    <hyperlink ref="E66" r:id="rId130" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1712"/>
-    <hyperlink ref="C67" r:id="rId131" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1106"/>
-    <hyperlink ref="E67" r:id="rId132" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1106"/>
-    <hyperlink ref="C68" r:id="rId133" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1119"/>
-    <hyperlink ref="E68" r:id="rId134" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1119"/>
-    <hyperlink ref="C69" r:id="rId135" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1139"/>
-    <hyperlink ref="E69" r:id="rId136" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1139"/>
-    <hyperlink ref="C70" r:id="rId137" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1194"/>
-    <hyperlink ref="E70" r:id="rId138" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1194"/>
-    <hyperlink ref="C71" r:id="rId139" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2068"/>
-    <hyperlink ref="E71" r:id="rId140" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2068"/>
-    <hyperlink ref="C72" r:id="rId141" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1290"/>
-    <hyperlink ref="E72" r:id="rId142" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1290"/>
-    <hyperlink ref="C73" r:id="rId143" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2011"/>
-    <hyperlink ref="E73" r:id="rId144" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2011"/>
-    <hyperlink ref="C74" r:id="rId145" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1404"/>
-    <hyperlink ref="E74" r:id="rId146" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1404"/>
-    <hyperlink ref="C75" r:id="rId147" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1120"/>
-    <hyperlink ref="E75" r:id="rId148" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1120"/>
-    <hyperlink ref="C76" r:id="rId149" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1180"/>
-    <hyperlink ref="E76" r:id="rId150" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1180"/>
-    <hyperlink ref="C77" r:id="rId151" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1146"/>
-    <hyperlink ref="E77" r:id="rId152" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1146"/>
-    <hyperlink ref="C78" r:id="rId153" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1297"/>
-    <hyperlink ref="E78" r:id="rId154" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1297"/>
-    <hyperlink ref="C79" r:id="rId155" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1005"/>
-    <hyperlink ref="E79" r:id="rId156" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1005"/>
-    <hyperlink ref="C80" r:id="rId157" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1510"/>
-    <hyperlink ref="E80" r:id="rId158" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1510"/>
-    <hyperlink ref="C81" r:id="rId159" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1601"/>
-    <hyperlink ref="E81" r:id="rId160" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1601"/>
-    <hyperlink ref="C82" r:id="rId161" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1161"/>
-    <hyperlink ref="E82" r:id="rId162" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1161"/>
-    <hyperlink ref="C83" r:id="rId163" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1203"/>
-    <hyperlink ref="E83" r:id="rId164" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1203"/>
-    <hyperlink ref="C84" r:id="rId165" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1446"/>
-    <hyperlink ref="E84" r:id="rId166" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1446"/>
-    <hyperlink ref="C85" r:id="rId167" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1009"/>
-    <hyperlink ref="E85" r:id="rId168" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1009"/>
-    <hyperlink ref="C86" r:id="rId169" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1104"/>
-    <hyperlink ref="E86" r:id="rId170" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1104"/>
-    <hyperlink ref="C87" r:id="rId171" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1370"/>
-    <hyperlink ref="E87" r:id="rId172" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1370"/>
-    <hyperlink ref="C88" r:id="rId173" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1642"/>
-    <hyperlink ref="E88" r:id="rId174" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1642"/>
-    <hyperlink ref="C89" r:id="rId175" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1796"/>
-    <hyperlink ref="E89" r:id="rId176" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1796"/>
-    <hyperlink ref="C90" r:id="rId177" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1644"/>
-    <hyperlink ref="E90" r:id="rId178" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1644"/>
-    <hyperlink ref="C91" r:id="rId179" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1902"/>
-    <hyperlink ref="E91" r:id="rId180" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1902"/>
-    <hyperlink ref="C92" r:id="rId181" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1731"/>
-    <hyperlink ref="E92" r:id="rId182" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1731"/>
-    <hyperlink ref="C93" r:id="rId183" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2025"/>
-    <hyperlink ref="E93" r:id="rId184" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2025"/>
-    <hyperlink ref="C94" r:id="rId185" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2033"/>
-    <hyperlink ref="E94" r:id="rId186" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2033"/>
-    <hyperlink ref="C95" r:id="rId187" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1118"/>
-    <hyperlink ref="E95" r:id="rId188" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1118"/>
-    <hyperlink ref="C96" r:id="rId189" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1786"/>
-    <hyperlink ref="E96" r:id="rId190" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1786"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1000"/>
+    <hyperlink ref="F2" r:id="rId2" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1000"/>
+    <hyperlink ref="D3" r:id="rId3" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1001"/>
+    <hyperlink ref="F3" r:id="rId4" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1001"/>
+    <hyperlink ref="D4" r:id="rId5" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1785"/>
+    <hyperlink ref="F4" r:id="rId6" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1785"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1293"/>
+    <hyperlink ref="F5" r:id="rId8" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1293"/>
+    <hyperlink ref="D6" r:id="rId9" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2012"/>
+    <hyperlink ref="F6" r:id="rId10" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2012"/>
+    <hyperlink ref="D7" r:id="rId11" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1409"/>
+    <hyperlink ref="F7" r:id="rId12" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1409"/>
+    <hyperlink ref="D8" r:id="rId13" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1877"/>
+    <hyperlink ref="F8" r:id="rId14" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1877"/>
+    <hyperlink ref="D9" r:id="rId15" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2001"/>
+    <hyperlink ref="F9" r:id="rId16" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2001"/>
+    <hyperlink ref="D10" r:id="rId17" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1264"/>
+    <hyperlink ref="F10" r:id="rId18" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1264"/>
+    <hyperlink ref="D11" r:id="rId19" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1787"/>
+    <hyperlink ref="F11" r:id="rId20" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1787"/>
+    <hyperlink ref="D12" r:id="rId21" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1820"/>
+    <hyperlink ref="F12" r:id="rId22" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1820"/>
+    <hyperlink ref="D13" r:id="rId23" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1197"/>
+    <hyperlink ref="F13" r:id="rId24" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1197"/>
+    <hyperlink ref="D14" r:id="rId25" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1880"/>
+    <hyperlink ref="F14" r:id="rId26" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1880"/>
+    <hyperlink ref="D15" r:id="rId27" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2066"/>
+    <hyperlink ref="F15" r:id="rId28" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2066"/>
+    <hyperlink ref="D16" r:id="rId29" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1910"/>
+    <hyperlink ref="F16" r:id="rId30" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1910"/>
+    <hyperlink ref="D17" r:id="rId31" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1639"/>
+    <hyperlink ref="F17" r:id="rId32" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1639"/>
+    <hyperlink ref="D18" r:id="rId33" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1924"/>
+    <hyperlink ref="F18" r:id="rId34" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1924"/>
+    <hyperlink ref="D19" r:id="rId35" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2023"/>
+    <hyperlink ref="F19" r:id="rId36" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2023"/>
+    <hyperlink ref="D20" r:id="rId37" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1313"/>
+    <hyperlink ref="F20" r:id="rId38" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1313"/>
+    <hyperlink ref="D21" r:id="rId39" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1209"/>
+    <hyperlink ref="F21" r:id="rId40" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1209"/>
+    <hyperlink ref="D22" r:id="rId41" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1068"/>
+    <hyperlink ref="F22" r:id="rId42" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1068"/>
+    <hyperlink ref="D23" r:id="rId43" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1225"/>
+    <hyperlink ref="F23" r:id="rId44" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1225"/>
+    <hyperlink ref="D24" r:id="rId45" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2100"/>
+    <hyperlink ref="F24" r:id="rId46" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2100"/>
+    <hyperlink ref="D25" r:id="rId47" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1319"/>
+    <hyperlink ref="F25" r:id="rId48" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1319"/>
+    <hyperlink ref="D26" r:id="rId49" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1567"/>
+    <hyperlink ref="F26" r:id="rId50" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1567"/>
+    <hyperlink ref="D27" r:id="rId51" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1581"/>
+    <hyperlink ref="F27" r:id="rId52" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1581"/>
+    <hyperlink ref="D28" r:id="rId53" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1585"/>
+    <hyperlink ref="F28" r:id="rId54" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1585"/>
+    <hyperlink ref="D29" r:id="rId55" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1263"/>
+    <hyperlink ref="F29" r:id="rId56" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1263"/>
+    <hyperlink ref="D30" r:id="rId57" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1991"/>
+    <hyperlink ref="F30" r:id="rId58" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1991"/>
+    <hyperlink ref="D31" r:id="rId59" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1100"/>
+    <hyperlink ref="F31" r:id="rId60" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1100"/>
+    <hyperlink ref="D32" r:id="rId61" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1327"/>
+    <hyperlink ref="F32" r:id="rId62" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1327"/>
+    <hyperlink ref="D33" r:id="rId63" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1876"/>
+    <hyperlink ref="F33" r:id="rId64" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1876"/>
+    <hyperlink ref="D34" r:id="rId65" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1243"/>
+    <hyperlink ref="F34" r:id="rId66" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1243"/>
+    <hyperlink ref="D35" r:id="rId67" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1493"/>
+    <hyperlink ref="F35" r:id="rId68" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1493"/>
+    <hyperlink ref="D36" r:id="rId69" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1110"/>
+    <hyperlink ref="F36" r:id="rId70" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1110"/>
+    <hyperlink ref="D37" r:id="rId71" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1349"/>
+    <hyperlink ref="F37" r:id="rId72" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1349"/>
+    <hyperlink ref="D38" r:id="rId73" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1607"/>
+    <hyperlink ref="F38" r:id="rId74" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1607"/>
+    <hyperlink ref="D39" r:id="rId75" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1881"/>
+    <hyperlink ref="F39" r:id="rId76" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1881"/>
+    <hyperlink ref="D40" r:id="rId77" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1893"/>
+    <hyperlink ref="F40" r:id="rId78" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1893"/>
+    <hyperlink ref="D41" r:id="rId79" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1545"/>
+    <hyperlink ref="F41" r:id="rId80" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1545"/>
+    <hyperlink ref="D42" r:id="rId81" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1496"/>
+    <hyperlink ref="F42" r:id="rId82" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1496"/>
+    <hyperlink ref="D43" r:id="rId83" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1196"/>
+    <hyperlink ref="F43" r:id="rId84" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1196"/>
+    <hyperlink ref="D44" r:id="rId85" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1636"/>
+    <hyperlink ref="F44" r:id="rId86" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1636"/>
+    <hyperlink ref="D45" r:id="rId87" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1837"/>
+    <hyperlink ref="F45" r:id="rId88" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1837"/>
+    <hyperlink ref="D46" r:id="rId89" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1925"/>
+    <hyperlink ref="F46" r:id="rId90" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1925"/>
+    <hyperlink ref="D47" r:id="rId91" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1149"/>
+    <hyperlink ref="F47" r:id="rId92" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1149"/>
+    <hyperlink ref="D48" r:id="rId93" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1563"/>
+    <hyperlink ref="F48" r:id="rId94" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1563"/>
+    <hyperlink ref="D49" r:id="rId95" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1654"/>
+    <hyperlink ref="F49" r:id="rId96" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1654"/>
+    <hyperlink ref="D50" r:id="rId97" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1617"/>
+    <hyperlink ref="F50" r:id="rId98" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1617"/>
+    <hyperlink ref="D51" r:id="rId99" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1723"/>
+    <hyperlink ref="F51" r:id="rId100" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1723"/>
+    <hyperlink ref="D52" r:id="rId101" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2056"/>
+    <hyperlink ref="F52" r:id="rId102" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2056"/>
+    <hyperlink ref="D53" r:id="rId103" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1131"/>
+    <hyperlink ref="F53" r:id="rId104" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1131"/>
+    <hyperlink ref="D54" r:id="rId105" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2002"/>
+    <hyperlink ref="F54" r:id="rId106" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2002"/>
+    <hyperlink ref="D55" r:id="rId107" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2035"/>
+    <hyperlink ref="F55" r:id="rId108" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2035"/>
+    <hyperlink ref="D56" r:id="rId109" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1025"/>
+    <hyperlink ref="F56" r:id="rId110" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1025"/>
+    <hyperlink ref="D57" r:id="rId111" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1224"/>
+    <hyperlink ref="F57" r:id="rId112" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1224"/>
+    <hyperlink ref="D58" r:id="rId113" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1457"/>
+    <hyperlink ref="F58" r:id="rId114" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1457"/>
+    <hyperlink ref="D59" r:id="rId115" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1083"/>
+    <hyperlink ref="F59" r:id="rId116" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1083"/>
+    <hyperlink ref="D60" r:id="rId117" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1935"/>
+    <hyperlink ref="F60" r:id="rId118" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1935"/>
+    <hyperlink ref="D61" r:id="rId119" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1792"/>
+    <hyperlink ref="F61" r:id="rId120" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1792"/>
+    <hyperlink ref="D62" r:id="rId121" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2005"/>
+    <hyperlink ref="F62" r:id="rId122" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2005"/>
+    <hyperlink ref="D63" r:id="rId123" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2031"/>
+    <hyperlink ref="F63" r:id="rId124" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2031"/>
+    <hyperlink ref="D64" r:id="rId125" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1502"/>
+    <hyperlink ref="F64" r:id="rId126" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1502"/>
+    <hyperlink ref="D65" r:id="rId127" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1638"/>
+    <hyperlink ref="F65" r:id="rId128" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1638"/>
+    <hyperlink ref="D66" r:id="rId129" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1712"/>
+    <hyperlink ref="F66" r:id="rId130" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1712"/>
+    <hyperlink ref="D67" r:id="rId131" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1106"/>
+    <hyperlink ref="F67" r:id="rId132" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1106"/>
+    <hyperlink ref="D68" r:id="rId133" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1119"/>
+    <hyperlink ref="F68" r:id="rId134" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1119"/>
+    <hyperlink ref="D69" r:id="rId135" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1139"/>
+    <hyperlink ref="F69" r:id="rId136" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1139"/>
+    <hyperlink ref="D70" r:id="rId137" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1194"/>
+    <hyperlink ref="F70" r:id="rId138" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1194"/>
+    <hyperlink ref="D71" r:id="rId139" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2068"/>
+    <hyperlink ref="F71" r:id="rId140" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2068"/>
+    <hyperlink ref="D72" r:id="rId141" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1290"/>
+    <hyperlink ref="F72" r:id="rId142" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1290"/>
+    <hyperlink ref="D73" r:id="rId143" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2011"/>
+    <hyperlink ref="F73" r:id="rId144" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2011"/>
+    <hyperlink ref="D74" r:id="rId145" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1404"/>
+    <hyperlink ref="F74" r:id="rId146" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1404"/>
+    <hyperlink ref="D75" r:id="rId147" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1120"/>
+    <hyperlink ref="F75" r:id="rId148" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1120"/>
+    <hyperlink ref="D76" r:id="rId149" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1180"/>
+    <hyperlink ref="F76" r:id="rId150" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1180"/>
+    <hyperlink ref="D77" r:id="rId151" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1146"/>
+    <hyperlink ref="F77" r:id="rId152" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1146"/>
+    <hyperlink ref="D78" r:id="rId153" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1297"/>
+    <hyperlink ref="F78" r:id="rId154" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1297"/>
+    <hyperlink ref="D79" r:id="rId155" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1005"/>
+    <hyperlink ref="F79" r:id="rId156" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1005"/>
+    <hyperlink ref="D80" r:id="rId157" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1510"/>
+    <hyperlink ref="F80" r:id="rId158" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1510"/>
+    <hyperlink ref="D81" r:id="rId159" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1601"/>
+    <hyperlink ref="F81" r:id="rId160" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1601"/>
+    <hyperlink ref="D82" r:id="rId161" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1161"/>
+    <hyperlink ref="F82" r:id="rId162" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1161"/>
+    <hyperlink ref="D83" r:id="rId163" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1203"/>
+    <hyperlink ref="F83" r:id="rId164" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1203"/>
+    <hyperlink ref="D84" r:id="rId165" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1446"/>
+    <hyperlink ref="F84" r:id="rId166" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1446"/>
+    <hyperlink ref="D85" r:id="rId167" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1009"/>
+    <hyperlink ref="F85" r:id="rId168" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1009"/>
+    <hyperlink ref="D86" r:id="rId169" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1104"/>
+    <hyperlink ref="F86" r:id="rId170" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1104"/>
+    <hyperlink ref="D87" r:id="rId171" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1370"/>
+    <hyperlink ref="F87" r:id="rId172" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1370"/>
+    <hyperlink ref="D88" r:id="rId173" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1642"/>
+    <hyperlink ref="F88" r:id="rId174" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1642"/>
+    <hyperlink ref="D89" r:id="rId175" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1796"/>
+    <hyperlink ref="F89" r:id="rId176" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1796"/>
+    <hyperlink ref="D90" r:id="rId177" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1644"/>
+    <hyperlink ref="F90" r:id="rId178" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1644"/>
+    <hyperlink ref="D91" r:id="rId179" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1902"/>
+    <hyperlink ref="F91" r:id="rId180" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1902"/>
+    <hyperlink ref="D92" r:id="rId181" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1731"/>
+    <hyperlink ref="F92" r:id="rId182" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1731"/>
+    <hyperlink ref="D93" r:id="rId183" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2025"/>
+    <hyperlink ref="F93" r:id="rId184" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2025"/>
+    <hyperlink ref="D94" r:id="rId185" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=2033"/>
+    <hyperlink ref="F94" r:id="rId186" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=2033"/>
+    <hyperlink ref="D95" r:id="rId187" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1118"/>
+    <hyperlink ref="F95" r:id="rId188" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1118"/>
+    <hyperlink ref="D96" r:id="rId189" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1786"/>
+    <hyperlink ref="F96" r:id="rId190" display="http://acm.timus.ru/rating.aspx?space=1&amp;num=1786"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId191"/>

--- a/ural 100.xlsx
+++ b/ural 100.xlsx
@@ -3828,6 +3828,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="200025" y="21507450"/>
+          <a:ext cx="188992" cy="188992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360442</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>322342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="图片 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF4E7DF1-C644-47A5-8C2E-B6A906BF6D87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="22098000"/>
           <a:ext cx="188992" cy="188992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4163,8 +4207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5778,7 +5822,9 @@
     </row>
     <row r="75" spans="1:8" ht="27.75" thickBot="1">
       <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
       <c r="C75" s="2">
         <v>1120</v>
       </c>
